--- a/Documents/Finance/Timesheets/Steve Thorpe/SWENG timesheet Steve Thorpe 10-03-2014.xlsx
+++ b/Documents/Finance/Timesheets/Steve Thorpe/SWENG timesheet Steve Thorpe 10-03-2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="valuevx">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -105,21 +105,21 @@
     <t>Supervisor Signature P.S</t>
   </si>
   <si>
-    <t>Date 12/02/2014</t>
-  </si>
-  <si>
     <t>Date 21/03/2014</t>
+  </si>
+  <si>
+    <t>Date 30/03/2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="ddd\ d/m;@"/>
     <numFmt numFmtId="165" formatCode="\£#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -341,28 +341,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -726,106 +726,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="8.85546875" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="29">
         <v>41708</v>
       </c>
@@ -1101,22 +1101,22 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1"/>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="23">
         <f>I18</f>
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="23">
         <f>I20</f>
         <v>225</v>
@@ -1124,58 +1124,43 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1"/>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="26" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A25:C25"/>
@@ -1184,6 +1169,21 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
